--- a/shared codes/data/데이터 명세.xlsx
+++ b/shared codes/data/데이터 명세.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACON\2025 LG Aimers 6기\온라인해커톤데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/downy/Documents/2025 LG aimers/DKU-LG-Capstone-6/shared codes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8744981-9598-4B1B-8642-8ED32E9C78BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D835B4BE-CAC0-E048-83AC-5A0BF71F4152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA19DC8F-9B0C-4123-9D80-76730E032BF2}"/>
+    <workbookView xWindow="-32320" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{DA19DC8F-9B0C-4123-9D80-76730E032BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터 명세" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="162">
   <si>
     <t>번호</t>
   </si>
@@ -28,9 +28,6 @@
     <t>설명</t>
   </si>
   <si>
-    <t>['TRCMWS', 'TRDQAZ', 'TRJXFG', 'TRVNRY', 'TRXQMD', 'TRYBLT', 'TRZKPL']</t>
-  </si>
-  <si>
     <t>['만18-34세', '만35-37세', '만38-39세', '만40-42세', '만43-44세', '만45-50세', '알 수 없음']</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>PGD(착상 전 유전 진단)가 시행되었는지 여부</t>
   </si>
   <si>
-    <t>남성 주 불임 원인</t>
-  </si>
-  <si>
     <t>남성의 주요 불임 원인 여부</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>불임 원인 - 정자 농도</t>
-  </si>
-  <si>
-    <t>파트너의 정자 농도 문제 여부</t>
   </si>
   <si>
     <t>불임 원인 - 정자 면역학적 요인</t>
@@ -554,12 +545,44 @@
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>남성 주 불임 원인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>['TRCMWS', 'TRDQAZ', 'TRJXFG', 'TRVNRY', 'TRXQMD', 'TRYBLT', 'TRZKPL']</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트너의 정자 농도 문제 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>True가 매우 적음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호영</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유진</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다훈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +752,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +941,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFACFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFDB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,11 +1274,74 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1250,6 +1390,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFDB"/>
+      <color rgb="FFFFACFD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1578,1220 +1724,1243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA87C3D-28BB-48EC-B99F-1013E1304AD3}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="36.25" customWidth="1"/>
-    <col min="3" max="3" width="77.375" customWidth="1"/>
-    <col min="5" max="5" width="43.625" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="270">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="I12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="I15" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="25">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="25">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B37" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B39" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B40" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="B45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B52" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="B56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="B58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="B60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="B62" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="15">
         <v>63</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B64" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="15">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B65" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="15">
         <v>65</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="B66" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="15">
         <v>66</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B67" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B68" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="15">
         <v>0</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F69" s="1"/>
     </row>
